--- a/decider/qualtrics/COCOA.xlsx
+++ b/decider/qualtrics/COCOA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\FINAL\modules\decider\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA552D3-81FE-45C7-B386-092F1BF2DCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B26D01-13E5-414F-9F23-9AB6CDCFB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="8280" windowWidth="15552" windowHeight="8376" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC4545-8B2D-445E-8D66-48E537455D2D}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/decider/qualtrics/COCOA.xlsx
+++ b/decider/qualtrics/COCOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\FINAL\modules\decider\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B26D01-13E5-414F-9F23-9AB6CDCFB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C5792-10AD-4BAE-9BED-9843A0B79B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Nome</t>
   </si>
@@ -47,12 +47,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
     <t>Pasto</t>
   </si>
   <si>
@@ -212,10 +206,31 @@
     <t>Rodriguez</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
     <t>Anselmi</t>
+  </si>
+  <si>
+    <t>Anna Maria</t>
+  </si>
+  <si>
+    <t>Sacchetta</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Vecchiarelli</t>
+  </si>
+  <si>
+    <t>Poke Bowl</t>
+  </si>
+  <si>
+    <t>Patatine</t>
+  </si>
+  <si>
+    <t>Pasta al sugo con tonno e cipolle</t>
+  </si>
+  <si>
+    <t>Portato cibo da casa</t>
   </si>
 </sst>
 </file>
@@ -238,13 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -258,6 +266,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,9 +276,16 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,28 +352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,19 +370,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC4545-8B2D-445E-8D66-48E537455D2D}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,13 +751,12 @@
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,591 +767,523 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5">
+        <v>202</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6">
+        <v>204</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>205</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="C7" s="6">
+        <v>206</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>207</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="11">
-        <v>202</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="12">
-        <v>203</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="11">
-        <v>201</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="H8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>208</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>209</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9">
+        <v>210</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>211</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9">
+        <v>212</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="10">
+        <v>213</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12">
-        <v>204</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11">
-        <v>205</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12">
+        <v>215</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11">
+        <v>216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
-        <v>206</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45917</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="12">
+        <v>217</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>207</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45917</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12">
-        <v>208</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45918</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11">
-        <v>209</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>45918</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="H18" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>218</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16">
-        <v>210</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45923</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="I11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="17">
-        <v>211</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45923</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="I12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="16">
-        <v>212</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45923</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="15">
-        <v>213</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="I14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5">
-        <v>214</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8">
-        <v>215</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="I16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45926</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="I17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8">
-        <v>217</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="I18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="5">
-        <v>218</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3">
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4">
         <v>221</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3">
         <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4">
         <v>223</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3">
         <v>224</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4">
         <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3">
         <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4">
         <v>227</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3">
         <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4">
         <v>229</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3">
         <v>230</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D31">

--- a/decider/qualtrics/COCOA.xlsx
+++ b/decider/qualtrics/COCOA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\FINAL\modules\decider\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C5792-10AD-4BAE-9BED-9843A0B79B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E442A5-72A9-4E1A-839F-F4916E947BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>Nome</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>Portato cibo da casa</t>
+  </si>
+  <si>
+    <t>Ion</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Ballerini</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Barboni</t>
+  </si>
+  <si>
+    <t>Tramezzino cotto e formaggio</t>
+  </si>
+  <si>
+    <t>Pasta al ragu bolognese</t>
   </si>
 </sst>
 </file>
@@ -317,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -340,11 +364,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +418,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC4545-8B2D-445E-8D66-48E537455D2D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,12 +929,8 @@
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -1052,12 +1086,8 @@
       <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1135,26 +1165,24 @@
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>218</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="4">
         <v>219</v>
@@ -1162,22 +1190,34 @@
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="3">
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="4">
         <v>221</v>
       </c>
@@ -1187,8 +1227,12 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="3">
         <v>222</v>
       </c>
@@ -1198,8 +1242,12 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="4">
         <v>223</v>
       </c>
@@ -1209,8 +1257,12 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="3">
         <v>224</v>
       </c>
@@ -1220,8 +1272,12 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="4">
         <v>225</v>
       </c>

--- a/decider/qualtrics/COCOA.xlsx
+++ b/decider/qualtrics/COCOA.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\FINAL\modules\decider\qualtrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Desktop\repo_tesi\ENIB\decider\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E442A5-72A9-4E1A-839F-F4916E947BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61270719-5360-4F3F-983F-4204D57E50E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$C$1:$C$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>Nome</t>
   </si>
@@ -122,30 +125,18 @@
     <t>Ricci</t>
   </si>
   <si>
-    <t>Ludovica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martinelli</t>
-  </si>
-  <si>
     <t>Lorenzo</t>
   </si>
   <si>
     <t>Vitanostra</t>
   </si>
   <si>
-    <t>Apolloni</t>
-  </si>
-  <si>
     <t>Giulia</t>
   </si>
   <si>
     <t>Genovese</t>
   </si>
   <si>
-    <t>Iacobacci</t>
-  </si>
-  <si>
     <t>Sorrentino</t>
   </si>
   <si>
@@ -173,30 +164,12 @@
     <t>Schisano</t>
   </si>
   <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Micheletti</t>
-  </si>
-  <si>
     <t>Francesca</t>
   </si>
   <si>
     <t>De Lucia</t>
   </si>
   <si>
-    <t>Bozzetti</t>
-  </si>
-  <si>
-    <t>Ginevra</t>
-  </si>
-  <si>
-    <t>Doro</t>
-  </si>
-  <si>
-    <t>Mantero</t>
-  </si>
-  <si>
     <t>Gianpaolo</t>
   </si>
   <si>
@@ -255,13 +228,79 @@
   </si>
   <si>
     <t>Pasta al ragu bolognese</t>
+  </si>
+  <si>
+    <t>Mercy Maribel</t>
+  </si>
+  <si>
+    <t>Valerio</t>
+  </si>
+  <si>
+    <t>Ferlazzo</t>
+  </si>
+  <si>
+    <t>Pizza e mortadella</t>
+  </si>
+  <si>
+    <t>Hot dog senza salse</t>
+  </si>
+  <si>
+    <t>Boh mo vediamo</t>
+  </si>
+  <si>
+    <t>Quartullo</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Pietroni</t>
+  </si>
+  <si>
+    <t>Carlo Edoardo</t>
+  </si>
+  <si>
+    <t>Capponi</t>
+  </si>
+  <si>
+    <t>Carolina Isabella</t>
+  </si>
+  <si>
+    <t>Capponi Torres</t>
+  </si>
+  <si>
+    <t>Aricò</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Pajalunga</t>
+  </si>
+  <si>
+    <t>liberatoria (&lt; 18 anni)</t>
+  </si>
+  <si>
+    <t>tutto a posto</t>
+  </si>
+  <si>
+    <t>mail da inviare</t>
+  </si>
+  <si>
+    <t>mail inviata</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Contatori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,23 +316,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,13 +332,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +369,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,21 +427,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,35 +465,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -778,132 +871,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC4545-8B2D-445E-8D66-48E537455D2D}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="39.5546875" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7">
+        <v>202</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5">
-        <v>202</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="7">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7">
+        <v>204</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6">
-        <v>203</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5">
-        <v>201</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6">
-        <v>204</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>206</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -913,14 +1027,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>207</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -929,17 +1043,15 @@
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>208</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -948,21 +1060,19 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>209</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -971,378 +1081,461 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18">
+        <f>COUNTIF(D2:D36,G10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>210</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="18">
+        <f>COUNTIF(D3:D37,G11)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <v>211</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7">
+        <v>212</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7">
+        <v>213</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7">
+        <v>215</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>217</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7">
+        <v>218</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7">
+        <v>219</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="11">
+        <v>221</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11">
+        <v>222</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11">
+        <v>223</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11">
+        <v>224</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>225</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="12">
+        <v>226</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7">
+        <v>227</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
-        <v>210</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10">
-        <v>211</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C29" s="11">
+        <v>228</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9">
-        <v>212</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="10">
-        <v>213</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="11">
+        <v>229</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11">
+        <v>230</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="11">
+        <v>231</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11">
+        <v>232</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="11">
-        <v>214</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="12">
-        <v>215</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="11">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12">
-        <v>217</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11">
-        <v>218</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4">
-        <v>219</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3">
-        <v>220</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4">
-        <v>221</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3">
-        <v>222</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4">
-        <v>223</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>224</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4">
-        <v>225</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3">
-        <v>226</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="4">
-        <v>227</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3">
-        <v>228</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="4">
-        <v>229</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3">
-        <v>230</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="11">
+        <v>233</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="11">
+        <v>234</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11">
+        <v>235</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D31">
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D36">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>

--- a/decider/qualtrics/COCOA.xlsx
+++ b/decider/qualtrics/COCOA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Desktop\repo_tesi\ENIB\decider\qualtrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\FINAL\modules\decider\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61270719-5360-4F3F-983F-4204D57E50E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224EE26-E257-4411-9DA3-58B61DBC52B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{E87CDDA5-73A2-47A4-A5A0-5710167BB230}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,12 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,14 +470,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,6 +485,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,22 +867,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC4545-8B2D-445E-8D66-48E537455D2D}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -921,12 +915,12 @@
       <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -942,12 +936,12 @@
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -963,12 +957,12 @@
       <c r="E4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -984,12 +978,12 @@
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1005,12 +999,12 @@
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1060,12 +1054,12 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1081,15 +1075,15 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="17">
         <f>COUNTIF(D2:D36,G10)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1105,15 +1099,15 @@
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="17">
         <f>COUNTIF(D3:D37,G11)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1146,10 +1140,10 @@
       <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1234,7 +1228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1285,14 +1279,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="21">
         <v>221</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1300,14 +1294,14 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="21">
         <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1315,14 +1309,14 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="21">
         <v>223</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1330,14 +1324,14 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="21">
         <v>224</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1345,7 +1339,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -1362,14 +1356,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1379,7 +1373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -1396,14 +1390,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1413,14 +1407,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="21">
         <v>229</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1428,14 +1422,14 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="21">
         <v>230</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1443,29 +1437,29 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="21">
         <v>231</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="21">
         <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1473,52 +1467,52 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="21">
         <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="21">
         <v>234</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="21">
         <v>235</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C46" s="9"/>
     </row>
   </sheetData>
